--- a/01-Requirement/Adcadamic/Score/3-File do GPA.xlsx
+++ b/01-Requirement/Adcadamic/Score/3-File do GPA.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Copy\wamp\www\ume-system\01-Requirement\Adcadamic\Score\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" tabRatio="599"/>
+    <workbookView minimized="1" xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Agriculture" sheetId="23" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Agriculture!$A$22:$U$74</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -546,6 +551,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1114,7 +1122,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1149,7 +1157,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1368,7 +1376,7 @@
       <selection activeCell="A22" sqref="A22"/>
       <selection pane="topRight" activeCell="E22" sqref="E22"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1972,7 +1980,7 @@
         <v>C</v>
       </c>
       <c r="K30" s="25" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(K29&gt;=85,"A",IF(K29&gt;=80,"B+",IF(K29&gt;=70,"B",IF(K29&gt;=65,"C+",IF(K29&gt;=50,"C",IF(K29&gt;=45,"D",IF(K29&gt;=40,"E",IF(K29&lt;=39,"F"))))))))</f>
         <v>B+</v>
       </c>
       <c r="L30" s="25" t="str">
